--- a/mcmaster_excel/Screw-Head_Mount_Precise-Control_Knobs.xlsx
+++ b/mcmaster_excel/Screw-Head_Mount_Precise-Control_Knobs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,78 +435,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Thread Size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ht.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Features</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Knurled Grip</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Stud</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -519,57 +501,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>Thread Size</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>Dia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>Ht.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acetal Plastic</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>35° to 180°</t>
+          <t>TemperatureRange, °F</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Locknut</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>93228A150</t>
-        </is>
-      </c>
+          <t>Features</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$4.23</t>
+          <t>Each</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -578,7 +556,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Six Arm Grip</t>
+          <t>Knurled Grip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -602,12 +580,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -622,7 +600,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -642,16 +620,94 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>93228A250</t>
+          <t>93228A150</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>$4.23</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Six Arm Grip</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acetal Plastic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>35° to 180°</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Locknut</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>93228A250</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -664,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,65 +729,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For Thread Size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ht.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>For ScrewHead Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Knurled Grip</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -745,47 +783,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>For Thread Size</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>Dia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>Ht.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Socket</t>
+          <t>For ScrewHead Type</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Acetal Plastic</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>35° to 180°</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>93228A400</t>
-        </is>
-      </c>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$2.13</t>
+          <t>Each</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -794,7 +828,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Six Arm Grip</t>
+          <t>Knurled Grip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -816,12 +850,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -846,16 +880,82 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>93228A500</t>
+          <t>93228A400</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>$2.13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Six Arm Grip</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Socket</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Acetal Plastic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35° to 180°</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>93228A500</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
